--- a/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Planning/Sprint Planning.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Planning/Sprint Planning.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t xml:space="preserve">Sprint 1 </t>
   </si>
@@ -62,29 +62,68 @@
     <t>Costo Actual</t>
   </si>
   <si>
+    <t>Horas Estimadas</t>
+  </si>
+  <si>
+    <t>Horas usadas</t>
+  </si>
+  <si>
+    <t>Horas Ahorradas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comparacion actual de costos </t>
   </si>
   <si>
     <t>Comparacion actual de tiempos</t>
   </si>
   <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
     <t>Estimada</t>
   </si>
   <si>
     <t>Real</t>
   </si>
   <si>
+    <t>Horas Restantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo Restante </t>
+  </si>
+  <si>
+    <t>5 Semanas (25 dias)</t>
+  </si>
+  <si>
+    <t>Estimado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ahorro </t>
   </si>
   <si>
     <t>Ahorro</t>
+  </si>
+  <si>
+    <t>Sprint 3 son 4 semanas estimadas (20 dias) 3.5 aprox hrs x dia</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Sprint 3 tenemos 5 semanas (25 dias ) 2,8 aprox hrs x dia</t>
   </si>
   <si>
     <t xml:space="preserve">Nota: Este ahorro no quiere decir que hicimos las tareas en menos tiempo, sino que se uso menos tiempo del estimado, ya que el tiempo usado fue el mismo. Por ejemplo : En una semana deberiamos haber usado 50 horas para terminar tareas, pero en esa misma semana se usaron 30 horas, pero igualmente paso una semana. Este ahorro mas bien es monetario ya que al usar menos horas se ahorra dinero del proyecto y lo puedo ver en la comparativa de el lado izquierdo								
 								</t>
   </si>
   <si>
-    <t>Sprint 1</t>
+    <t>Nota: Cada sprint equivale a un 33% de avance, como ya tenemos dos sprint listos y en el segundo sprint tenemos algunas tareas pendientes, se puede decir que llevamos aproximadamente un 64% de avance en el proyecto</t>
   </si>
   <si>
     <t>Encargado</t>
@@ -175,9 +214,6 @@
   </si>
   <si>
     <t>CRUD</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
   </si>
   <si>
     <t>14/10/2024</t>
@@ -723,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -772,12 +808,22 @@
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,12 +833,24 @@
     <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,6 +865,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1754,126 +1815,221 @@
   <cols>
     <col customWidth="1" min="2" max="10" width="7.13"/>
     <col customWidth="1" min="12" max="20" width="7.13"/>
+    <col customWidth="1" min="23" max="23" width="13.63"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="W2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="3">
       <c r="B3" s="21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="22">
+        <v>104.0</v>
+      </c>
+      <c r="X3" s="22">
+        <v>68.0</v>
+      </c>
+      <c r="Y3" s="23">
+        <f t="shared" ref="Y3:Y4" si="1">W3-X3</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="V4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="22">
+        <v>156.0</v>
+      </c>
+      <c r="X4" s="22">
+        <v>105.0</v>
+      </c>
+      <c r="Y4" s="23">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="V5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="22">
+        <v>69.0</v>
+      </c>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="7">
-      <c r="B7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>18</v>
+      <c r="B7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="W8" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="W9" s="27">
+        <f>W5</f>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24">
+      <c r="B10" s="28">
         <f>'Planilla de Costos Estimada'!C27</f>
         <v>1759940</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="28">
         <f>'Planilla de Costos Actual'!C27</f>
         <v>1171037</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="29">
         <f>SUM('Planilla de Costos Estimada'!D11+'Planilla de Costos Estimada'!I11)</f>
         <v>260</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="30">
         <f>SUM('Planilla de Costos Actual'!D11+'Planilla de Costos Actual'!I11)</f>
         <v>173</v>
       </c>
+      <c r="W10" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="W11" s="32" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="V13" s="34" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14">
-      <c r="E14" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>20</v>
+      <c r="E14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="V16" s="34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="29">
+      <c r="D17" s="37">
         <f>B10-G10</f>
         <v>588903</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="38">
         <f>((G10*100)/B10)/100</f>
         <v>0.6653846154</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="39">
         <f>L10-Q10</f>
         <v>87</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="38">
         <f>((Q10*100)/L10)/100</f>
         <v>0.6653846154</v>
       </c>
+      <c r="V17" s="36" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22">
-      <c r="F22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
+      <c r="F22" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="V22" s="42" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23">
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
     </row>
     <row r="24">
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
     </row>
     <row r="25">
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="F22:P26"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="B10:E12"/>
+    <mergeCell ref="G10:J12"/>
+    <mergeCell ref="L10:O12"/>
+    <mergeCell ref="Q10:T12"/>
+    <mergeCell ref="E14:G15"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="V14:X15"/>
+    <mergeCell ref="V17:X18"/>
+    <mergeCell ref="V22:X26"/>
     <mergeCell ref="B3:J5"/>
     <mergeCell ref="L3:T5"/>
-    <mergeCell ref="B7:E8"/>
     <mergeCell ref="G7:J8"/>
     <mergeCell ref="L7:O8"/>
     <mergeCell ref="Q7:T8"/>
-    <mergeCell ref="B10:E12"/>
-    <mergeCell ref="Q10:T12"/>
-    <mergeCell ref="G10:J12"/>
-    <mergeCell ref="L10:O12"/>
-    <mergeCell ref="E14:G15"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="F22:P26"/>
-    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1901,96 +2057,96 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="37">
+      <c r="A1" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="46">
         <v>45531.0</v>
       </c>
-      <c r="H1" s="37">
+      <c r="H1" s="46">
         <v>45532.0</v>
       </c>
-      <c r="I1" s="37">
+      <c r="I1" s="46">
         <v>45533.0</v>
       </c>
-      <c r="J1" s="37">
+      <c r="J1" s="46">
         <v>45534.0</v>
       </c>
-      <c r="K1" s="37">
+      <c r="K1" s="46">
         <v>45535.0</v>
       </c>
-      <c r="L1" s="37">
+      <c r="L1" s="46">
         <v>45536.0</v>
       </c>
-      <c r="M1" s="37">
+      <c r="M1" s="46">
         <v>45537.0</v>
       </c>
-      <c r="N1" s="37">
+      <c r="N1" s="46">
         <v>45538.0</v>
       </c>
-      <c r="O1" s="37">
+      <c r="O1" s="46">
         <v>45539.0</v>
       </c>
-      <c r="P1" s="37">
+      <c r="P1" s="46">
         <v>45540.0</v>
       </c>
-      <c r="Q1" s="37">
+      <c r="Q1" s="46">
         <v>45541.0</v>
       </c>
-      <c r="R1" s="37">
+      <c r="R1" s="46">
         <v>45542.0</v>
       </c>
-      <c r="S1" s="37">
+      <c r="S1" s="46">
         <v>45543.0</v>
       </c>
-      <c r="T1" s="37">
+      <c r="T1" s="46">
         <v>45544.0</v>
       </c>
-      <c r="U1" s="37">
+      <c r="U1" s="46">
         <v>45545.0</v>
       </c>
-      <c r="V1" s="37">
+      <c r="V1" s="46">
         <v>45546.0</v>
       </c>
-      <c r="W1" s="37">
+      <c r="W1" s="46">
         <v>45547.0</v>
       </c>
-      <c r="X1" s="37">
+      <c r="X1" s="46">
         <v>45548.0</v>
       </c>
-      <c r="Y1" s="37">
+      <c r="Y1" s="46">
         <v>45549.0</v>
       </c>
-      <c r="Z1" s="37">
+      <c r="Z1" s="46">
         <v>45550.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="41">
+      <c r="A2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="50">
         <v>45531.0</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="51">
         <v>45533.0</v>
       </c>
       <c r="G2" s="17"/>
@@ -2004,19 +2160,19 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="46">
+      <c r="A3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="55">
         <v>45531.0</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="56">
         <v>45536.0</v>
       </c>
       <c r="G3" s="17"/>
@@ -2031,19 +2187,19 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="41">
+      <c r="A4" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="50">
         <v>45533.0</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="51">
         <v>45547.0</v>
       </c>
       <c r="I4" s="17"/>
@@ -2065,19 +2221,19 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="46">
+      <c r="A5" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="55">
         <v>45533.0</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="56">
         <v>45550.0</v>
       </c>
       <c r="I5" s="17"/>
@@ -2100,19 +2256,19 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="41">
+      <c r="A6" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="50">
         <v>45533.0</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="51">
         <v>45547.0</v>
       </c>
       <c r="I6" s="17"/>
@@ -2134,19 +2290,19 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="46">
+      <c r="A7" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="55">
         <v>45533.0</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="56">
         <v>45547.0</v>
       </c>
       <c r="I7" s="17"/>
@@ -2168,19 +2324,19 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="41">
+      <c r="A8" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="50">
         <v>45537.0</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="51">
         <v>45538.0</v>
       </c>
       <c r="K8" s="11"/>
@@ -2193,19 +2349,19 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="46">
+      <c r="A9" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="55">
         <v>45538.0</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="56">
         <v>45550.0</v>
       </c>
       <c r="K9" s="11"/>
@@ -2225,19 +2381,19 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="41">
+      <c r="A10" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="50">
         <v>45542.0</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="51">
         <v>45542.0</v>
       </c>
       <c r="K10" s="11"/>
@@ -2248,19 +2404,19 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="46">
+      <c r="A11" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="55">
         <v>45542.0</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="56">
         <v>45542.0</v>
       </c>
       <c r="K11" s="11"/>
@@ -2271,19 +2427,19 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="41">
+      <c r="A12" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="50">
         <v>45542.0</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="51">
         <v>45542.0</v>
       </c>
       <c r="K12" s="11"/>
@@ -2294,19 +2450,19 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="46">
+      <c r="A13" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="55">
         <v>45542.0</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="56">
         <v>45542.0</v>
       </c>
       <c r="K13" s="11"/>
@@ -2317,19 +2473,19 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="41">
+      <c r="A14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="50">
         <v>45542.0</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="51">
         <v>45542.0</v>
       </c>
       <c r="K14" s="11"/>
@@ -2340,19 +2496,19 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="46">
+      <c r="A15" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="55">
         <v>45542.0</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="56">
         <v>45542.0</v>
       </c>
       <c r="K15" s="11"/>
@@ -2363,19 +2519,19 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="41">
+      <c r="A16" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="50">
         <v>45542.0</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="51">
         <v>45546.0</v>
       </c>
       <c r="K16" s="11"/>
@@ -2389,19 +2545,19 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="46">
+      <c r="A17" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="55">
         <v>45543.0</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="56">
         <v>45550.0</v>
       </c>
       <c r="K17" s="11"/>
@@ -2417,19 +2573,19 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="41">
+      <c r="A18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="50">
         <v>45543.0</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="51">
         <v>45547.0</v>
       </c>
       <c r="K18" s="11"/>
@@ -2444,19 +2600,19 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="46">
+      <c r="A19" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="55">
         <v>45547.0</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="56">
         <v>45550.0</v>
       </c>
       <c r="K19" s="11"/>
@@ -2469,19 +2625,19 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="41">
+      <c r="A20" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="50">
         <v>45548.0</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="51">
         <v>45548.0</v>
       </c>
       <c r="K20" s="11"/>
@@ -2493,19 +2649,19 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="46">
+      <c r="A21" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="55">
         <v>45548.0</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="56">
         <v>45550.0</v>
       </c>
       <c r="K21" s="11"/>
@@ -2517,19 +2673,19 @@
       <c r="Z21" s="17"/>
     </row>
     <row r="22">
-      <c r="A22" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="53">
+      <c r="A22" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="62">
         <v>45548.0</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="63">
         <v>45550.0</v>
       </c>
       <c r="K22" s="10"/>
@@ -2578,1064 +2734,1064 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="57" t="s">
+      <c r="A1" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="50">
+        <v>45566.0</v>
+      </c>
+      <c r="E2" s="50">
+        <v>45567.0</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="55">
+        <v>45566.0</v>
+      </c>
+      <c r="E3" s="55">
+        <v>45567.0</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="50">
+        <v>45567.0</v>
+      </c>
+      <c r="E4" s="50">
+        <v>45569.0</v>
+      </c>
+      <c r="F4" s="71"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="55">
+        <v>45568.0</v>
+      </c>
+      <c r="E5" s="55">
+        <v>45568.0</v>
+      </c>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="50">
+        <v>45568.0</v>
+      </c>
+      <c r="E6" s="50">
+        <v>45568.0</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="55">
+        <v>45569.0</v>
+      </c>
+      <c r="E7" s="55">
+        <v>45571.0</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="50">
+        <v>45569.0</v>
+      </c>
+      <c r="E8" s="50">
+        <v>45571.0</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="55">
+        <v>45569.0</v>
+      </c>
+      <c r="E9" s="55">
+        <v>45572.0</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="50">
+        <v>45569.0</v>
+      </c>
+      <c r="E10" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="55">
+        <v>45570.0</v>
+      </c>
+      <c r="E11" s="55">
+        <v>45573.0</v>
+      </c>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="41">
-        <v>45566.0</v>
-      </c>
-      <c r="E2" s="41">
-        <v>45567.0</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="46">
-        <v>45566.0</v>
-      </c>
-      <c r="E3" s="46">
-        <v>45567.0</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="41">
-        <v>45567.0</v>
-      </c>
-      <c r="E4" s="41">
-        <v>45569.0</v>
-      </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="46">
-        <v>45568.0</v>
-      </c>
-      <c r="E5" s="46">
-        <v>45568.0</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="41">
-        <v>45568.0</v>
-      </c>
-      <c r="E6" s="41">
-        <v>45568.0</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="46">
-        <v>45569.0</v>
-      </c>
-      <c r="E7" s="46">
+      <c r="C12" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="50">
+        <v>45570.0</v>
+      </c>
+      <c r="E12" s="50">
+        <v>45575.0</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="55">
+        <v>45570.0</v>
+      </c>
+      <c r="E13" s="55">
+        <v>45574.0</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="50">
+        <v>45570.0</v>
+      </c>
+      <c r="E14" s="50">
+        <v>45575.0</v>
+      </c>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="55">
         <v>45571.0</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="41">
-        <v>45569.0</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="E15" s="55">
+        <v>45575.0</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="50">
         <v>45571.0</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="46">
-        <v>45569.0</v>
-      </c>
-      <c r="E9" s="46">
+      <c r="E16" s="50">
+        <v>45576.0</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="55">
         <v>45572.0</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="41">
-        <v>45569.0</v>
-      </c>
-      <c r="E10" s="41">
+      <c r="E17" s="76"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="74"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="50">
+        <v>45572.0</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="55">
         <v>45573.0</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="46">
-        <v>45570.0</v>
-      </c>
-      <c r="E11" s="46">
+      <c r="E19" s="55">
         <v>45573.0</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="41">
-        <v>45570.0</v>
-      </c>
-      <c r="E12" s="41">
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="E20" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="79"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="55">
+        <v>45573.0</v>
+      </c>
+      <c r="E21" s="55">
+        <v>45574.0</v>
+      </c>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="E22" s="50">
         <v>45575.0</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="46">
-        <v>45570.0</v>
-      </c>
-      <c r="E13" s="46">
-        <v>45574.0</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="41">
-        <v>45570.0</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="55">
+        <v>45573.0</v>
+      </c>
+      <c r="E23" s="55">
         <v>45575.0</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="46">
-        <v>45571.0</v>
-      </c>
-      <c r="E15" s="46">
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="74"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="E24" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="55">
+        <v>45573.0</v>
+      </c>
+      <c r="E25" s="55">
+        <v>45573.0</v>
+      </c>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="E26" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="55">
+        <v>45573.0</v>
+      </c>
+      <c r="E27" s="55">
+        <v>45573.0</v>
+      </c>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="E28" s="50">
+        <v>45573.0</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="55">
         <v>45575.0</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="41">
-        <v>45571.0</v>
-      </c>
-      <c r="E16" s="41">
-        <v>45576.0</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="46">
-        <v>45572.0</v>
-      </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="65"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="41">
-        <v>45572.0</v>
-      </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="46">
-        <v>45573.0</v>
-      </c>
-      <c r="E19" s="46">
-        <v>45573.0</v>
-      </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="E20" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="70"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="46">
-        <v>45573.0</v>
-      </c>
-      <c r="E21" s="46">
-        <v>45574.0</v>
-      </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="E22" s="41">
+      <c r="E29" s="55">
         <v>45575.0</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="46">
-        <v>45573.0</v>
-      </c>
-      <c r="E23" s="46">
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="50">
         <v>45575.0</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="65"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="E24" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="46">
-        <v>45573.0</v>
-      </c>
-      <c r="E25" s="46">
-        <v>45573.0</v>
-      </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="E26" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="46">
-        <v>45573.0</v>
-      </c>
-      <c r="E27" s="46">
-        <v>45573.0</v>
-      </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="E28" s="41">
-        <v>45573.0</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="46">
+      <c r="E30" s="50">
+        <v>45579.0</v>
+      </c>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="71"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="55">
         <v>45575.0</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E31" s="55">
+        <v>45579.0</v>
+      </c>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="73"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="62">
         <v>45575.0</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="41">
-        <v>45575.0</v>
-      </c>
-      <c r="E30" s="41">
+      <c r="E32" s="62">
         <v>45579.0</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="62"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="46">
-        <v>45575.0</v>
-      </c>
-      <c r="E31" s="46">
-        <v>45579.0</v>
-      </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="64"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="53">
-        <v>45575.0</v>
-      </c>
-      <c r="E32" s="53">
-        <v>45579.0</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="71"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="80"/>
     </row>
   </sheetData>
   <dataValidations>
